--- a/mappings/4_POI_mapping.xlsx
+++ b/mappings/4_POI_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlav736\Documents\GitHub\ahuahu_great_mercury\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DC621B-F79C-4192-AD3D-776192979295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77EE39B-989D-4E52-A1DB-5D0C01AB8D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1417,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
